--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Day</t>
   </si>
@@ -33,18 +33,27 @@
   <si>
     <t>Created config server, organized potential microservices, did some tests</t>
   </si>
+  <si>
+    <t>25/02/2024</t>
+  </si>
+  <si>
+    <t>Updated Bff, created Rest template, a lot of stuff</t>
+  </si>
+  <si>
+    <t>Total hours Spent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,45 +62,144 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,98 +212,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,25 +222,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,19 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,133 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +416,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,7 +429,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,45 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -497,123 +498,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,36 +638,45 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="36.4444444444444" customWidth="1"/>
@@ -1019,7 +1044,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4">
+        <f>SUM(C4:C35)</f>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Updated Bff, created Rest template, a lot of stuff</t>
   </si>
   <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>Added product addition functionality</t>
+  </si>
+  <si>
     <t>Total hours Spent</t>
   </si>
 </sst>
@@ -48,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,7 +84,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,119 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -212,6 +194,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -222,181 +228,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,15 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,8 +488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,149 +508,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +677,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1001,7 +1004,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1045,35 +1048,49 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3">
         <f>SUM(C4:C35)</f>
-        <v>10.75</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Added product addition functionality</t>
+  </si>
+  <si>
+    <t>Worked on chat system, problem with Websocket.. still investigating</t>
+  </si>
+  <si>
+    <t>Finally solved chat system, will start working on the user details functionality, then on search</t>
   </si>
   <si>
     <t>Total hours Spent</t>
@@ -54,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -75,6 +81,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -83,6 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,60 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,21 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -187,23 +203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -211,9 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,11 +428,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,21 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,39 +508,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -519,164 +516,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,7 +1016,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1062,35 +1074,63 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2.2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45385</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5">
         <f>SUM(C4:C35)</f>
-        <v>12.95</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Finally solved chat system, will start working on the user details functionality, then on search</t>
+  </si>
+  <si>
+    <t>Thought of the new design using an Api Gateway</t>
+  </si>
+  <si>
+    <t>Added api Gateway, will test it tomorrow</t>
   </si>
   <si>
     <t>Total hours Spent</t>
@@ -60,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -81,10 +87,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,9 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +163,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -119,16 +186,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,13 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -156,63 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +240,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -246,175 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,39 +431,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +449,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -487,6 +469,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,153 +516,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,7 +1022,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1102,26 +1108,54 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>45385</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45476</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45507</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="5">
         <f>SUM(C4:C35)</f>
-        <v>24.95</v>
+        <v>34.95</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BFE3D-4F2E-49BC-853D-B13E95CE97DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58456F6A-EB6A-4011-A2C7-C6FACC90A8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Day</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>13/3/2024</t>
+  </si>
+  <si>
+    <t>Made chat preview and chat functionality</t>
   </si>
 </sst>
 </file>
@@ -141,13 +144,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +431,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -607,7 +610,7 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -615,26 +618,32 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>45.95</v>
+        <v>50.95</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58456F6A-EB6A-4011-A2C7-C6FACC90A8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A3DAA-5B5C-4DB8-9EA7-104414AE8964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Day</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>Made chat preview and chat functionality</t>
+  </si>
+  <si>
+    <t>14/3/2024</t>
+  </si>
+  <si>
+    <t>refactored cache and Added User Basic Details Update</t>
+  </si>
+  <si>
+    <t>15/3/2024</t>
+  </si>
+  <si>
+    <t>16/3/2024</t>
+  </si>
+  <si>
+    <t>Fight with cache second level</t>
+  </si>
+  <si>
+    <t>Finally optimized the cache in a great way, refactored user specific detail</t>
   </si>
 </sst>
 </file>
@@ -431,7 +449,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -628,13 +646,55 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>50.95</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A3DAA-5B5C-4DB8-9EA7-104414AE8964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBB9A4-9E5D-404B-9B6E-C96FC6187795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Finally optimized the cache in a great way, refactored user specific detail</t>
+  </si>
+  <si>
+    <t>17/3/2024</t>
+  </si>
+  <si>
+    <t>Added UpdateProtectedUserDetails functionality</t>
+  </si>
+  <si>
+    <t>19/3/2024</t>
+  </si>
+  <si>
+    <t>Added Product Category and Subcategory</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -688,13 +700,38 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>66.95</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBB9A4-9E5D-404B-9B6E-C96FC6187795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830951D5-D3E8-43BD-83D4-636F5EB6D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Added Product Category and Subcategory</t>
+  </si>
+  <si>
+    <t>20/3/2024</t>
+  </si>
+  <si>
+    <t>Encoded chat messages</t>
   </si>
 </sst>
 </file>
@@ -460,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -715,6 +721,9 @@
       </c>
     </row>
     <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -723,6 +732,20 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -731,7 +754,7 @@
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>71.11</v>
+        <v>111.11</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830951D5-D3E8-43BD-83D4-636F5EB6D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80782428-4600-4E2C-9DF9-3D7D8DC73B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Encoded chat messages</t>
+  </si>
+  <si>
+    <t>21/3/2024</t>
+  </si>
+  <si>
+    <t>Added search engine functionality for products</t>
   </si>
 </sst>
 </file>
@@ -466,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -742,10 +748,24 @@
         <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -754,7 +774,7 @@
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>111.11</v>
+        <v>83.11</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80782428-4600-4E2C-9DF9-3D7D8DC73B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48257C77-0DAC-4797-BDC5-8853D1ED3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Day</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Added search engine functionality for products</t>
+  </si>
+  <si>
+    <t>22/3/2024</t>
+  </si>
+  <si>
+    <t>Refactored search functionality, a lot of features added (category search, etc)</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -768,13 +774,27 @@
         <v>34</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>83.11</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48257C77-0DAC-4797-BDC5-8853D1ED3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F690F70-C6DE-422B-9452-3F5EE5A5912E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Day</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Refactored search functionality, a lot of features added (category search, etc)</t>
+  </si>
+  <si>
+    <t>23/3/2024</t>
+  </si>
+  <si>
+    <t>Added Admin Authority access on endpoint</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -788,13 +794,27 @@
         <v>36</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>89.61</v>
+        <v>90.76</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F690F70-C6DE-422B-9452-3F5EE5A5912E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C8F34-6E68-4D72-BBF3-088A85C86AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Day</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Added Admin Authority access on endpoint</t>
+  </si>
+  <si>
+    <t>25/3/2024</t>
+  </si>
+  <si>
+    <t>Integrated Oauth2</t>
   </si>
 </sst>
 </file>
@@ -484,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -808,13 +814,27 @@
         <v>38</v>
       </c>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>90.76</v>
+        <v>102.76</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C8F34-6E68-4D72-BBF3-088A85C86AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D093F7F-98F4-4598-BEB1-7F4575804F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-6210" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Day</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Integrated Oauth2</t>
+  </si>
+  <si>
+    <t>27/3/2024</t>
+  </si>
+  <si>
+    <t>Made Product Update functionality + a lot of refactoring</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -828,13 +834,27 @@
         <v>40</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>102.76</v>
+        <v>106.51</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D093F7F-98F4-4598-BEB1-7F4575804F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EF3E7-9E09-47FF-A284-6474613417C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-6210" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32415" yWindow="-5865" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Day</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Made Product Update functionality + a lot of refactoring</t>
+  </si>
+  <si>
+    <t>26/3/2024</t>
+  </si>
+  <si>
+    <t>Added product like functionality, separated products retrieval by user</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -839,13 +845,27 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <v>3.75</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -854,7 +874,7 @@
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>106.51</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EF3E7-9E09-47FF-A284-6474613417C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B09BE6-E152-4B7D-80A9-E8312DB5BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32415" yWindow="-5865" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Day</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Added product like functionality, separated products retrieval by user</t>
+  </si>
+  <si>
+    <t>29/3/2024</t>
+  </si>
+  <si>
+    <t>Added batch processing of data + product recommendations</t>
   </si>
 </sst>
 </file>
@@ -502,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -868,13 +874,27 @@
         <v>44</v>
       </c>
     </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>108.51</v>
+        <v>113.91000000000001</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B09BE6-E152-4B7D-80A9-E8312DB5BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46446706-2915-4180-A343-C6C1971CD1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Day</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Added batch processing of data + product recommendations</t>
+  </si>
+  <si>
+    <t>added image to products + refactoring of update product functionality</t>
+  </si>
+  <si>
+    <t>30/3/2024</t>
+  </si>
+  <si>
+    <t>enhanced registration process with email code registration + user image</t>
   </si>
 </sst>
 </file>
@@ -509,7 +518,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -878,7 +887,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1">
@@ -886,6 +895,28 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -894,7 +925,7 @@
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>113.91000000000001</v>
+        <v>120.41000000000001</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46446706-2915-4180-A343-C6C1971CD1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC6A95-BE16-42EE-9500-6F6B560F39AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>enhanced registration process with email code registration + user image</t>
+  </si>
+  <si>
+    <t>31/3/2024</t>
+  </si>
+  <si>
+    <t>Made cron job for registration codes removal after max 30 minutes of inactivity</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +915,10 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" t="s">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="1">
@@ -917,6 +926,20 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -925,7 +948,7 @@
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>120.41000000000001</v>
+        <v>122.81000000000002</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC6A95-BE16-42EE-9500-6F6B560F39AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C70243-F20D-4AA5-8B66-5255A84E33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Day</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Made cron job for registration codes removal after max 30 minutes of inactivity</t>
+  </si>
+  <si>
+    <t>Added Exception handling with custom error codes for better FE control over errors</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -942,13 +945,24 @@
         <v>51</v>
       </c>
     </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="36" spans="3:4">
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C4:C35)</f>
-        <v>122.81000000000002</v>
+        <v>127.81000000000002</v>
       </c>
     </row>
     <row r="37" spans="3:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C70243-F20D-4AA5-8B66-5255A84E33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5890D342-E5FD-4C28-970D-8CAB777F65B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Day</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Added Exception handling with custom error codes for better FE control over errors</t>
+  </si>
+  <si>
+    <t>Improved security a lot</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D38"/>
+  <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -956,27 +959,59 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="4" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="4">
-        <f>SUM(C4:C35)</f>
-        <v>127.81000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="5"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
+      <c r="D39" s="4">
+        <f>SUM(C4:C38)</f>
+        <v>135.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5890D342-E5FD-4C28-970D-8CAB777F65B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D95C81-05C9-4FCA-97D0-87CEEFDA3879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Day</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Improved security a lot</t>
+  </si>
+  <si>
+    <t>Refactored search call method</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -975,9 +978,15 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="2">
+        <v>45355</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1"/>
@@ -997,7 +1006,7 @@
       </c>
       <c r="D39" s="4">
         <f>SUM(C4:C38)</f>
-        <v>135.81</v>
+        <v>137.31</v>
       </c>
     </row>
     <row r="40" spans="1:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D95C81-05C9-4FCA-97D0-87CEEFDA3879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0BD829-916E-4E2F-B43E-2D4D4E617F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Day</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Refactored search call method</t>
+  </si>
+  <si>
+    <t>Added User Ban and removed cron job ms, will have cron on each microservice</t>
   </si>
 </sst>
 </file>
@@ -532,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -990,9 +993,15 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="2">
+        <v>45386</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1"/>
@@ -1006,7 +1015,7 @@
       </c>
       <c r="D39" s="4">
         <f>SUM(C4:C38)</f>
-        <v>137.31</v>
+        <v>142.31</v>
       </c>
     </row>
     <row r="40" spans="1:4">

--- a/files/documentation/ProjectTimeline.xlsx
+++ b/files/documentation/ProjectTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0BD829-916E-4E2F-B43E-2D4D4E617F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268755D3-D3BD-4ADF-AA0A-A800D65FA8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Day</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Added User Ban and removed cron job ms, will have cron on each microservice</t>
+  </si>
+  <si>
+    <t>Configured correctly Oauth2 flow</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D39" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1005,9 +1008,15 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="2">
+        <v>45416</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="4" t="s">
@@ -1015,7 +1024,7 @@
       </c>
       <c r="D39" s="4">
         <f>SUM(C4:C38)</f>
-        <v>142.31</v>
+        <v>146.81</v>
       </c>
     </row>
     <row r="40" spans="1:4">
